--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.191131666666667</v>
+        <v>0.3491903333333333</v>
       </c>
       <c r="H2">
-        <v>3.573395</v>
+        <v>1.047571</v>
       </c>
       <c r="I2">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="J2">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N2">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O2">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P2">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q2">
-        <v>31.02323072115556</v>
+        <v>0.02084014468044444</v>
       </c>
       <c r="R2">
-        <v>279.2090764904</v>
+        <v>0.187561302124</v>
       </c>
       <c r="S2">
-        <v>0.02505218233055705</v>
+        <v>0.0002116120857466769</v>
       </c>
       <c r="T2">
-        <v>0.02505218233055704</v>
+        <v>0.000211612085746677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.191131666666667</v>
+        <v>0.3491903333333333</v>
       </c>
       <c r="H3">
-        <v>3.573395</v>
+        <v>1.047571</v>
       </c>
       <c r="I3">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="J3">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.990667</v>
       </c>
       <c r="O3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P3">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q3">
-        <v>0.3933382782738889</v>
+        <v>0.1153104466507778</v>
       </c>
       <c r="R3">
-        <v>3.540044504465</v>
+        <v>1.037794019857</v>
       </c>
       <c r="S3">
-        <v>0.0003176323689004176</v>
+        <v>0.001170869228515914</v>
       </c>
       <c r="T3">
-        <v>0.0003176323689004176</v>
+        <v>0.001170869228515914</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.191131666666667</v>
+        <v>0.3491903333333333</v>
       </c>
       <c r="H4">
-        <v>3.573395</v>
+        <v>1.047571</v>
       </c>
       <c r="I4">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="J4">
-        <v>0.02720036629735778</v>
+        <v>0.008130334326258625</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.709327</v>
       </c>
       <c r="O4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P4">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q4">
-        <v>2.266853395018333</v>
+        <v>0.6645472660796666</v>
       </c>
       <c r="R4">
-        <v>20.401680555165</v>
+        <v>5.980925394717</v>
       </c>
       <c r="S4">
-        <v>0.001830551597900318</v>
+        <v>0.006747853011996034</v>
       </c>
       <c r="T4">
-        <v>0.001830551597900318</v>
+        <v>0.006747853011996035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>103.245483</v>
       </c>
       <c r="I5">
-        <v>0.7858954736735307</v>
+        <v>0.801301577139928</v>
       </c>
       <c r="J5">
-        <v>0.7858954736735306</v>
+        <v>0.8013015771399279</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N5">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O5">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P5">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q5">
-        <v>896.3488335395735</v>
+        <v>2.053942695361334</v>
       </c>
       <c r="R5">
-        <v>8067.139501856161</v>
+        <v>18.485484258252</v>
       </c>
       <c r="S5">
-        <v>0.7238283662798063</v>
+        <v>0.02085585798151446</v>
       </c>
       <c r="T5">
-        <v>0.7238283662798062</v>
+        <v>0.02085585798151446</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>103.245483</v>
       </c>
       <c r="I6">
-        <v>0.7858954736735307</v>
+        <v>0.801301577139928</v>
       </c>
       <c r="J6">
-        <v>0.7858954736735306</v>
+        <v>0.8013015771399279</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.990667</v>
       </c>
       <c r="O6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P6">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q6">
         <v>11.36465476746234</v>
@@ -818,10 +818,10 @@
         <v>102.281892907161</v>
       </c>
       <c r="S6">
-        <v>0.009177297036447915</v>
+        <v>0.1153973897978876</v>
       </c>
       <c r="T6">
-        <v>0.009177297036447915</v>
+        <v>0.1153973897978876</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>103.245483</v>
       </c>
       <c r="I7">
-        <v>0.7858954736735307</v>
+        <v>0.801301577139928</v>
       </c>
       <c r="J7">
-        <v>0.7858954736735306</v>
+        <v>0.8013015771399279</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.709327</v>
       </c>
       <c r="O7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P7">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q7">
         <v>65.49580263554901</v>
@@ -880,10 +880,10 @@
         <v>589.462223719941</v>
       </c>
       <c r="S7">
-        <v>0.05288981035727654</v>
+        <v>0.6650483293605258</v>
       </c>
       <c r="T7">
-        <v>0.05288981035727653</v>
+        <v>0.6650483293605258</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>24.554169</v>
       </c>
       <c r="I8">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="J8">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>26.04517333333333</v>
+        <v>0.05968133333333333</v>
       </c>
       <c r="N8">
-        <v>78.13552</v>
+        <v>0.179044</v>
       </c>
       <c r="O8">
-        <v>0.9210237118384171</v>
+        <v>0.02602747651633847</v>
       </c>
       <c r="P8">
-        <v>0.921023711838417</v>
+        <v>0.02602747651633848</v>
       </c>
       <c r="Q8">
-        <v>213.17252922032</v>
+        <v>0.4884751816039999</v>
       </c>
       <c r="R8">
-        <v>1918.55276298288</v>
+        <v>4.396276634436</v>
       </c>
       <c r="S8">
-        <v>0.1721431632280539</v>
+        <v>0.004960006449077339</v>
       </c>
       <c r="T8">
-        <v>0.1721431632280538</v>
+        <v>0.00496000644907734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>24.554169</v>
       </c>
       <c r="I9">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="J9">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.990667</v>
       </c>
       <c r="O9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="P9">
-        <v>0.01167750336256582</v>
+        <v>0.144012433133819</v>
       </c>
       <c r="Q9">
         <v>2.702778326747</v>
@@ -1004,10 +1004,10 @@
         <v>24.325004940723</v>
       </c>
       <c r="S9">
-        <v>0.002182573957217492</v>
+        <v>0.02744417410741551</v>
       </c>
       <c r="T9">
-        <v>0.002182573957217491</v>
+        <v>0.02744417410741551</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>24.554169</v>
       </c>
       <c r="I10">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="J10">
-        <v>0.1869041600291116</v>
+        <v>0.1905680885338134</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>5.709327</v>
       </c>
       <c r="O10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498424</v>
       </c>
       <c r="P10">
-        <v>0.06729878479901708</v>
+        <v>0.8299600903498425</v>
       </c>
       <c r="Q10">
         <v>15.576420003807</v>
@@ -1066,10 +1066,10 @@
         <v>140.187780034263</v>
       </c>
       <c r="S10">
-        <v>0.01257842284384023</v>
+        <v>0.1581639079773206</v>
       </c>
       <c r="T10">
-        <v>0.01257842284384023</v>
+        <v>0.1581639079773206</v>
       </c>
     </row>
   </sheetData>
